--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2927,28 +2927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4248.207691920596</v>
+        <v>4463.785864243968</v>
       </c>
       <c r="AB2" t="n">
-        <v>5812.585181782182</v>
+        <v>6107.548747792773</v>
       </c>
       <c r="AC2" t="n">
-        <v>5257.84021004721</v>
+        <v>5524.652867301705</v>
       </c>
       <c r="AD2" t="n">
-        <v>4248207.691920595</v>
+        <v>4463785.864243967</v>
       </c>
       <c r="AE2" t="n">
-        <v>5812585.181782182</v>
+        <v>6107548.747792773</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.478669071743534e-07</v>
+        <v>9.340066652232019e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.90755208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5257840.210047211</v>
+        <v>5524652.867301704</v>
       </c>
     </row>
     <row r="3">
@@ -3033,28 +3033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1999.882329623896</v>
+        <v>2129.382846556149</v>
       </c>
       <c r="AB3" t="n">
-        <v>2736.327231972937</v>
+        <v>2913.515552399237</v>
       </c>
       <c r="AC3" t="n">
-        <v>2475.17600141283</v>
+        <v>2635.453717223013</v>
       </c>
       <c r="AD3" t="n">
-        <v>1999882.329623896</v>
+        <v>2129382.846556148</v>
       </c>
       <c r="AE3" t="n">
-        <v>2736327.231972937</v>
+        <v>2913515.552399237</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.024598852764282e-06</v>
+        <v>1.477127704879582e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.66471354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2475176.00141283</v>
+        <v>2635453.717223013</v>
       </c>
     </row>
     <row r="4">
@@ -3139,28 +3139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1594.733412186075</v>
+        <v>1715.429879613701</v>
       </c>
       <c r="AB4" t="n">
-        <v>2181.98460922575</v>
+        <v>2347.126840712568</v>
       </c>
       <c r="AC4" t="n">
-        <v>1973.739060555877</v>
+        <v>2123.120349248171</v>
       </c>
       <c r="AD4" t="n">
-        <v>1594733.412186075</v>
+        <v>1715429.879613701</v>
       </c>
       <c r="AE4" t="n">
-        <v>2181984.60922575</v>
+        <v>2347126.840712568</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.171837087756926e-06</v>
+        <v>1.689395828680848e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1973739.060555877</v>
+        <v>2123120.349248171</v>
       </c>
     </row>
     <row r="5">
@@ -3245,28 +3245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1426.214268545395</v>
+        <v>1529.729430745177</v>
       </c>
       <c r="AB5" t="n">
-        <v>1951.409282356658</v>
+        <v>2093.043294045049</v>
       </c>
       <c r="AC5" t="n">
-        <v>1765.169519268667</v>
+        <v>1893.286179666102</v>
       </c>
       <c r="AD5" t="n">
-        <v>1426214.268545395</v>
+        <v>1529729.430745177</v>
       </c>
       <c r="AE5" t="n">
-        <v>1951409.282356658</v>
+        <v>2093043.294045049</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.247930405143739e-06</v>
+        <v>1.799096856517267e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.35546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1765169.519268667</v>
+        <v>1893286.179666102</v>
       </c>
     </row>
     <row r="6">
@@ -3351,28 +3351,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1313.544965024586</v>
+        <v>1416.974786369796</v>
       </c>
       <c r="AB6" t="n">
-        <v>1797.250170660624</v>
+        <v>1938.767415226817</v>
       </c>
       <c r="AC6" t="n">
-        <v>1625.723136829231</v>
+        <v>1753.734174194726</v>
       </c>
       <c r="AD6" t="n">
-        <v>1313544.965024586</v>
+        <v>1416974.786369795</v>
       </c>
       <c r="AE6" t="n">
-        <v>1797250.170660624</v>
+        <v>1938767.415226817</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.297414402953569e-06</v>
+        <v>1.870436175232975e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.42447916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1625723.136829231</v>
+        <v>1753734.174194726</v>
       </c>
     </row>
     <row r="7">
@@ -3457,28 +3457,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1222.835691950908</v>
+        <v>1326.350764642139</v>
       </c>
       <c r="AB7" t="n">
-        <v>1673.137741430524</v>
+        <v>1814.771630649367</v>
       </c>
       <c r="AC7" t="n">
-        <v>1513.455823651963</v>
+        <v>1641.572373268171</v>
       </c>
       <c r="AD7" t="n">
-        <v>1222835.691950908</v>
+        <v>1326350.764642138</v>
       </c>
       <c r="AE7" t="n">
-        <v>1673137.741430524</v>
+        <v>1814771.630649367</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.333360325890898e-06</v>
+        <v>1.92225813316797e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.79296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1513455.823651963</v>
+        <v>1641572.373268171</v>
       </c>
     </row>
     <row r="8">
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1148.410636557729</v>
+        <v>1243.292430962027</v>
       </c>
       <c r="AB8" t="n">
-        <v>1571.306097239863</v>
+        <v>1701.127554233167</v>
       </c>
       <c r="AC8" t="n">
-        <v>1421.342848661248</v>
+        <v>1538.774328004671</v>
       </c>
       <c r="AD8" t="n">
-        <v>1148410.636557729</v>
+        <v>1243292.430962027</v>
       </c>
       <c r="AE8" t="n">
-        <v>1571306.097239863</v>
+        <v>1701127.554233167</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.363144090610399e-06</v>
+        <v>1.965196326885538e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.29817708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1421342.848661248</v>
+        <v>1538774.328004671</v>
       </c>
     </row>
     <row r="9">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1144.044433145468</v>
+        <v>1238.926227549766</v>
       </c>
       <c r="AB9" t="n">
-        <v>1565.332065107908</v>
+        <v>1695.153522101212</v>
       </c>
       <c r="AC9" t="n">
-        <v>1415.93896977136</v>
+        <v>1533.370449114783</v>
       </c>
       <c r="AD9" t="n">
-        <v>1144044.433145468</v>
+        <v>1238926.227549766</v>
       </c>
       <c r="AE9" t="n">
-        <v>1565332.065107908</v>
+        <v>1695153.522101212</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.362023698207158e-06</v>
+        <v>1.963581097027824e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.314453125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1415938.96977136</v>
+        <v>1533370.449114783</v>
       </c>
     </row>
     <row r="10">
@@ -3775,28 +3775,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1148.548933398829</v>
+        <v>1243.430727803127</v>
       </c>
       <c r="AB10" t="n">
-        <v>1571.495321079082</v>
+        <v>1701.316778072386</v>
       </c>
       <c r="AC10" t="n">
-        <v>1421.51401324283</v>
+        <v>1538.945492586252</v>
       </c>
       <c r="AD10" t="n">
-        <v>1148548.933398829</v>
+        <v>1243430.727803127</v>
       </c>
       <c r="AE10" t="n">
-        <v>1571495.321079082</v>
+        <v>1701316.778072386</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.362023698207158e-06</v>
+        <v>1.963581097027824e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.314453125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1421514.01324283</v>
+        <v>1538945.492586252</v>
       </c>
     </row>
   </sheetData>
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2936.196146763245</v>
+        <v>3104.374025662713</v>
       </c>
       <c r="AB2" t="n">
-        <v>4017.433103833516</v>
+        <v>4247.541497228158</v>
       </c>
       <c r="AC2" t="n">
-        <v>3634.014926906268</v>
+        <v>3842.162098194475</v>
       </c>
       <c r="AD2" t="n">
-        <v>2936196.146763245</v>
+        <v>3104374.025662713</v>
       </c>
       <c r="AE2" t="n">
-        <v>4017433.103833516</v>
+        <v>4247541.497228158</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.971230653994403e-07</v>
+        <v>1.166958180809756e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.443359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3634014.926906268</v>
+        <v>3842162.098194475</v>
       </c>
     </row>
     <row r="3">
@@ -4178,28 +4178,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1593.641601510506</v>
+        <v>1711.314939079956</v>
       </c>
       <c r="AB3" t="n">
-        <v>2180.490745692148</v>
+        <v>2341.496597535934</v>
       </c>
       <c r="AC3" t="n">
-        <v>1972.387769261271</v>
+        <v>2118.027448578218</v>
       </c>
       <c r="AD3" t="n">
-        <v>1593641.601510506</v>
+        <v>1711314.939079956</v>
       </c>
       <c r="AE3" t="n">
-        <v>2180490.745692148</v>
+        <v>2341496.597535934</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.1485024076899e-06</v>
+        <v>1.681364319400074e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.37630208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1972387.769261271</v>
+        <v>2118027.448578218</v>
       </c>
     </row>
     <row r="4">
@@ -4284,28 +4284,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1307.585163702657</v>
+        <v>1416.926329063125</v>
       </c>
       <c r="AB4" t="n">
-        <v>1789.095707564084</v>
+        <v>1938.701113802045</v>
       </c>
       <c r="AC4" t="n">
-        <v>1618.346924245763</v>
+        <v>1753.67420048488</v>
       </c>
       <c r="AD4" t="n">
-        <v>1307585.163702657</v>
+        <v>1416926.329063125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1789095.707564084</v>
+        <v>1938701.113802045</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.280245514584948e-06</v>
+        <v>1.874231271856697e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.55729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1618346.924245763</v>
+        <v>1753674.20048488</v>
       </c>
     </row>
     <row r="5">
@@ -4390,28 +4390,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1165.216372414685</v>
+        <v>1266.05486287413</v>
       </c>
       <c r="AB5" t="n">
-        <v>1594.30044645609</v>
+        <v>1732.272117782929</v>
       </c>
       <c r="AC5" t="n">
-        <v>1442.14264946105</v>
+        <v>1566.946498120912</v>
       </c>
       <c r="AD5" t="n">
-        <v>1165216.372414685</v>
+        <v>1266054.86287413</v>
       </c>
       <c r="AE5" t="n">
-        <v>1594300.44645609</v>
+        <v>1732272.117782929</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350656603240734e-06</v>
+        <v>1.977310456857341e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.27799479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1442142.649461051</v>
+        <v>1566946.498120912</v>
       </c>
     </row>
     <row r="6">
@@ -4496,28 +4496,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1064.362760873209</v>
+        <v>1165.286502678673</v>
       </c>
       <c r="AB6" t="n">
-        <v>1456.30808579772</v>
+        <v>1594.396401777207</v>
       </c>
       <c r="AC6" t="n">
-        <v>1317.32008603042</v>
+        <v>1442.229446940994</v>
       </c>
       <c r="AD6" t="n">
-        <v>1064362.760873209</v>
+        <v>1165286.502678673</v>
       </c>
       <c r="AE6" t="n">
-        <v>1456308.08579772</v>
+        <v>1594396.401777207</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.392188521103542e-06</v>
+        <v>2.038111622221232e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.58463541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1317320.08603042</v>
+        <v>1442229.446940994</v>
       </c>
     </row>
     <row r="7">
@@ -4602,28 +4602,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1054.017759360746</v>
+        <v>1154.770908965619</v>
       </c>
       <c r="AB7" t="n">
-        <v>1442.153598339112</v>
+        <v>1580.008502543753</v>
       </c>
       <c r="AC7" t="n">
-        <v>1304.516482988914</v>
+        <v>1429.214708616837</v>
       </c>
       <c r="AD7" t="n">
-        <v>1054017.759360746</v>
+        <v>1154770.908965619</v>
       </c>
       <c r="AE7" t="n">
-        <v>1442153.598339112</v>
+        <v>1580008.502543753</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.397307571444772e-06</v>
+        <v>2.045605719347479e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1304516.482988914</v>
+        <v>1429214.708616837</v>
       </c>
     </row>
   </sheetData>
@@ -4899,28 +4899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1133.00895969623</v>
+        <v>1241.580409774996</v>
       </c>
       <c r="AB2" t="n">
-        <v>1550.232843483932</v>
+        <v>1698.785091316027</v>
       </c>
       <c r="AC2" t="n">
-        <v>1402.280796667286</v>
+        <v>1536.655426460675</v>
       </c>
       <c r="AD2" t="n">
-        <v>1133008.95969623</v>
+        <v>1241580.409774996</v>
       </c>
       <c r="AE2" t="n">
-        <v>1550232.843483932</v>
+        <v>1698785.091316027</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283501339243394e-06</v>
+        <v>1.985734998121337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.333984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1402280.796667286</v>
+        <v>1536655.426460675</v>
       </c>
     </row>
     <row r="3">
@@ -5005,28 +5005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>851.0865092340904</v>
+        <v>951.8905810700652</v>
       </c>
       <c r="AB3" t="n">
-        <v>1164.494109220916</v>
+        <v>1302.418687468681</v>
       </c>
       <c r="AC3" t="n">
-        <v>1053.356425814618</v>
+        <v>1178.117675892778</v>
       </c>
       <c r="AD3" t="n">
-        <v>851086.5092340903</v>
+        <v>951890.5810700651</v>
       </c>
       <c r="AE3" t="n">
-        <v>1164494.109220916</v>
+        <v>1302418.687468681</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.470384479914151e-06</v>
+        <v>2.27486628426983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.86067708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1053356.425814618</v>
+        <v>1178117.675892778</v>
       </c>
     </row>
   </sheetData>
@@ -5302,28 +5302,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1623.14728333816</v>
+        <v>1751.405390671502</v>
       </c>
       <c r="AB2" t="n">
-        <v>2220.861721267558</v>
+        <v>2396.350122069385</v>
       </c>
       <c r="AC2" t="n">
-        <v>2008.905795588784</v>
+        <v>2167.645829717603</v>
       </c>
       <c r="AD2" t="n">
-        <v>1623147.28333816</v>
+        <v>1751405.390671502</v>
       </c>
       <c r="AE2" t="n">
-        <v>2220861.721267558</v>
+        <v>2396350.122069385</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.08611475509787e-06</v>
+        <v>1.641438678412479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.90169270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2008905.795588784</v>
+        <v>2167645.829717603</v>
       </c>
     </row>
     <row r="3">
@@ -5408,28 +5408,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1044.084179746141</v>
+        <v>1140.256514541056</v>
       </c>
       <c r="AB3" t="n">
-        <v>1428.562036471807</v>
+        <v>1560.149267762176</v>
       </c>
       <c r="AC3" t="n">
-        <v>1292.222080710348</v>
+        <v>1411.250811330204</v>
       </c>
       <c r="AD3" t="n">
-        <v>1044084.179746142</v>
+        <v>1140256.514541056</v>
       </c>
       <c r="AE3" t="n">
-        <v>1428562.036471807</v>
+        <v>1560149.267762176</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.37996581376779e-06</v>
+        <v>2.085534010999869e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1292222.080710348</v>
+        <v>1411250.811330203</v>
       </c>
     </row>
     <row r="4">
@@ -5514,28 +5514,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>922.4149894284487</v>
+        <v>1018.501983368792</v>
       </c>
       <c r="AB4" t="n">
-        <v>1262.088882613294</v>
+        <v>1393.559346781466</v>
       </c>
       <c r="AC4" t="n">
-        <v>1141.636891009552</v>
+        <v>1260.559998597469</v>
       </c>
       <c r="AD4" t="n">
-        <v>922414.9894284487</v>
+        <v>1018501.983368792</v>
       </c>
       <c r="AE4" t="n">
-        <v>1262088.882613294</v>
+        <v>1393559.346781466</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.452758391810233e-06</v>
+        <v>2.19554499514257e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.10221354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1141636.891009552</v>
+        <v>1260559.998597469</v>
       </c>
     </row>
     <row r="5">
@@ -5620,28 +5620,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>927.6728110756313</v>
+        <v>1023.759805015974</v>
       </c>
       <c r="AB5" t="n">
-        <v>1269.282866149689</v>
+        <v>1400.753330317861</v>
       </c>
       <c r="AC5" t="n">
-        <v>1148.144290854054</v>
+        <v>1267.06739844197</v>
       </c>
       <c r="AD5" t="n">
-        <v>927672.8110756313</v>
+        <v>1023759.805015974</v>
       </c>
       <c r="AE5" t="n">
-        <v>1269282.866149689</v>
+        <v>1400753.330317861</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.452655286175612e-06</v>
+        <v>2.195389172218855e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.10546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1148144.290854054</v>
+        <v>1267067.39844197</v>
       </c>
     </row>
   </sheetData>
@@ -5917,28 +5917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>830.4507113774307</v>
+        <v>928.5446704596734</v>
       </c>
       <c r="AB2" t="n">
-        <v>1136.259300206284</v>
+        <v>1270.475782622657</v>
       </c>
       <c r="AC2" t="n">
-        <v>1027.81630734454</v>
+        <v>1149.22335705311</v>
       </c>
       <c r="AD2" t="n">
-        <v>830450.7113774307</v>
+        <v>928544.6704596734</v>
       </c>
       <c r="AE2" t="n">
-        <v>1136259.300206285</v>
+        <v>1270475.782622657</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448987947235668e-06</v>
+        <v>2.290108048757051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.146484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1027816.30734454</v>
+        <v>1149223.35705311</v>
       </c>
     </row>
     <row r="3">
@@ -6023,28 +6023,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>812.4858560889883</v>
+        <v>910.6650665172518</v>
       </c>
       <c r="AB3" t="n">
-        <v>1111.678992647158</v>
+        <v>1246.01211971618</v>
       </c>
       <c r="AC3" t="n">
-        <v>1005.581909840178</v>
+        <v>1127.094471799461</v>
       </c>
       <c r="AD3" t="n">
-        <v>812485.8560889883</v>
+        <v>910665.0665172518</v>
       </c>
       <c r="AE3" t="n">
-        <v>1111678.992647158</v>
+        <v>1246012.11971618</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464434863938528e-06</v>
+        <v>2.314521715093743e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.8828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1005581.909840178</v>
+        <v>1127094.47179946</v>
       </c>
     </row>
   </sheetData>
@@ -6320,28 +6320,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3222.718541927016</v>
+        <v>3400.505785427671</v>
       </c>
       <c r="AB2" t="n">
-        <v>4409.465685372565</v>
+        <v>4652.722035349798</v>
       </c>
       <c r="AC2" t="n">
-        <v>3988.632469084399</v>
+        <v>4208.672774432226</v>
       </c>
       <c r="AD2" t="n">
-        <v>3222718.541927016</v>
+        <v>3400505.785427671</v>
       </c>
       <c r="AE2" t="n">
-        <v>4409465.685372565</v>
+        <v>4652722.035349797</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.575140855549913e-07</v>
+        <v>1.104369398985668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.1328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3988632.469084399</v>
+        <v>4208672.774432226</v>
       </c>
     </row>
     <row r="3">
@@ -6426,28 +6426,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1687.28632277755</v>
+        <v>1814.228380855012</v>
       </c>
       <c r="AB3" t="n">
-        <v>2308.619584643247</v>
+        <v>2482.307308793185</v>
       </c>
       <c r="AC3" t="n">
-        <v>2088.288171652833</v>
+        <v>2245.399383182152</v>
       </c>
       <c r="AD3" t="n">
-        <v>1687286.32277755</v>
+        <v>1814228.380855012</v>
       </c>
       <c r="AE3" t="n">
-        <v>2308619.584643248</v>
+        <v>2482307.308793185</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.11540455382516e-06</v>
+        <v>1.626133005607783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.93294270833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2088288.171652833</v>
+        <v>2245399.383182152</v>
       </c>
     </row>
     <row r="4">
@@ -6532,28 +6532,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1377.277915719395</v>
+        <v>1487.356949346547</v>
       </c>
       <c r="AB4" t="n">
-        <v>1884.452405500606</v>
+        <v>2035.067395653496</v>
       </c>
       <c r="AC4" t="n">
-        <v>1704.60291276519</v>
+        <v>1840.843419647355</v>
       </c>
       <c r="AD4" t="n">
-        <v>1377277.915719395</v>
+        <v>1487356.949346547</v>
       </c>
       <c r="AE4" t="n">
-        <v>1884452.405500606</v>
+        <v>2035067.395653496</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.251037288122787e-06</v>
+        <v>1.823870109267461e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.90559895833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1704602.91276519</v>
+        <v>1840843.419647355</v>
       </c>
     </row>
     <row r="5">
@@ -6638,28 +6638,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1230.53067313828</v>
+        <v>1332.220864967564</v>
       </c>
       <c r="AB5" t="n">
-        <v>1683.666354169697</v>
+        <v>1822.803360885163</v>
       </c>
       <c r="AC5" t="n">
-        <v>1522.97960036831</v>
+        <v>1648.837566442867</v>
       </c>
       <c r="AD5" t="n">
-        <v>1230530.67313828</v>
+        <v>1332220.864967564</v>
       </c>
       <c r="AE5" t="n">
-        <v>1683666.354169697</v>
+        <v>1822803.360885163</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.322538807191473e-06</v>
+        <v>1.928111193553826e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.55794270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1522979.60036831</v>
+        <v>1648837.566442867</v>
       </c>
     </row>
     <row r="6">
@@ -6744,28 +6744,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1121.980751202623</v>
+        <v>1223.585602177335</v>
       </c>
       <c r="AB6" t="n">
-        <v>1535.143562092757</v>
+        <v>1674.163801686024</v>
       </c>
       <c r="AC6" t="n">
-        <v>1388.631615114145</v>
+        <v>1514.383958156763</v>
       </c>
       <c r="AD6" t="n">
-        <v>1121980.751202622</v>
+        <v>1223585.602177334</v>
       </c>
       <c r="AE6" t="n">
-        <v>1535143.562092757</v>
+        <v>1674163.801686025</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.369249304253747e-06</v>
+        <v>1.996209786769015e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.75716145833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1388631.615114145</v>
+        <v>1514383.958156763</v>
       </c>
     </row>
     <row r="7">
@@ -6850,28 +6850,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1077.323511458932</v>
+        <v>1178.757770233052</v>
       </c>
       <c r="AB7" t="n">
-        <v>1474.041556537067</v>
+        <v>1612.828384355488</v>
       </c>
       <c r="AC7" t="n">
-        <v>1333.361099211487</v>
+        <v>1458.902306971454</v>
       </c>
       <c r="AD7" t="n">
-        <v>1077323.511458932</v>
+        <v>1178757.770233052</v>
       </c>
       <c r="AE7" t="n">
-        <v>1474041.556537068</v>
+        <v>1612828.384355488</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.386478585957044e-06</v>
+        <v>2.021328120331995e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.47395833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1333361.099211487</v>
+        <v>1458902.306971454</v>
       </c>
     </row>
     <row r="8">
@@ -6956,28 +6956,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1079.744590210523</v>
+        <v>1181.178848984643</v>
       </c>
       <c r="AB8" t="n">
-        <v>1477.35418329545</v>
+        <v>1616.141011113872</v>
       </c>
       <c r="AC8" t="n">
-        <v>1336.357573521351</v>
+        <v>1461.898781281318</v>
       </c>
       <c r="AD8" t="n">
-        <v>1079744.590210523</v>
+        <v>1181178.848984643</v>
       </c>
       <c r="AE8" t="n">
-        <v>1477354.18329545</v>
+        <v>1616141.011113872</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.388010077664004e-06</v>
+        <v>2.023560861093148e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.44791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1336357.573521351</v>
+        <v>1461898.781281318</v>
       </c>
     </row>
   </sheetData>
@@ -7253,28 +7253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>791.0309488280369</v>
+        <v>894.9553348535069</v>
       </c>
       <c r="AB2" t="n">
-        <v>1082.323442009018</v>
+        <v>1224.517371789397</v>
       </c>
       <c r="AC2" t="n">
-        <v>979.0280117541683</v>
+        <v>1107.651152446742</v>
       </c>
       <c r="AD2" t="n">
-        <v>791030.9488280369</v>
+        <v>894955.3348535069</v>
       </c>
       <c r="AE2" t="n">
-        <v>1082323.442009018</v>
+        <v>1224517.371789397</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.443691324661131e-06</v>
+        <v>2.313132621847003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.82682291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>979028.0117541683</v>
+        <v>1107651.152446742</v>
       </c>
     </row>
   </sheetData>
@@ -7550,28 +7550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2207.658828583054</v>
+        <v>2355.771318523995</v>
       </c>
       <c r="AB2" t="n">
-        <v>3020.616204301228</v>
+        <v>3223.270247300326</v>
       </c>
       <c r="AC2" t="n">
-        <v>2732.332833224074</v>
+        <v>2915.645858786066</v>
       </c>
       <c r="AD2" t="n">
-        <v>2207658.828583054</v>
+        <v>2355771.318523995</v>
       </c>
       <c r="AE2" t="n">
-        <v>3020616.204301228</v>
+        <v>3223270.247300326</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.288577063168019e-07</v>
+        <v>1.379208046325789e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.87630208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2732332.833224074</v>
+        <v>2915645.858786066</v>
       </c>
     </row>
     <row r="3">
@@ -7656,28 +7656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1311.423289191734</v>
+        <v>1426.517586990211</v>
       </c>
       <c r="AB3" t="n">
-        <v>1794.347200184384</v>
+        <v>1951.82429603432</v>
       </c>
       <c r="AC3" t="n">
-        <v>1623.097221780898</v>
+        <v>1765.544924623409</v>
       </c>
       <c r="AD3" t="n">
-        <v>1311423.289191734</v>
+        <v>1426517.586990211</v>
       </c>
       <c r="AE3" t="n">
-        <v>1794347.200184384</v>
+        <v>1951824.29603432</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.254962988468094e-06</v>
+        <v>1.863423256076122e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.810546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1623097.221780898</v>
+        <v>1765544.924623409</v>
       </c>
     </row>
     <row r="4">
@@ -7762,28 +7762,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1089.416356363111</v>
+        <v>1188.214910226786</v>
       </c>
       <c r="AB4" t="n">
-        <v>1490.58752043363</v>
+        <v>1625.768060514486</v>
       </c>
       <c r="AC4" t="n">
-        <v>1348.327939536168</v>
+        <v>1470.607038598787</v>
       </c>
       <c r="AD4" t="n">
-        <v>1089416.356363111</v>
+        <v>1188214.910226786</v>
       </c>
       <c r="AE4" t="n">
-        <v>1490587.52043363</v>
+        <v>1625768.060514486</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.37427950763178e-06</v>
+        <v>2.040589577861489e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.57096354166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1348327.939536168</v>
+        <v>1470607.038598787</v>
       </c>
     </row>
     <row r="5">
@@ -7868,28 +7868,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>984.2812025826398</v>
+        <v>1082.994415591743</v>
       </c>
       <c r="AB5" t="n">
-        <v>1346.736964795555</v>
+        <v>1481.800737754213</v>
       </c>
       <c r="AC5" t="n">
-        <v>1218.206279032668</v>
+        <v>1340.379755063348</v>
       </c>
       <c r="AD5" t="n">
-        <v>984281.2025826399</v>
+        <v>1082994.415591743</v>
       </c>
       <c r="AE5" t="n">
-        <v>1346736.964795555</v>
+        <v>1481800.737754213</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.424832294733658e-06</v>
+        <v>2.115652539885648e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1218206.279032668</v>
+        <v>1340379.755063348</v>
       </c>
     </row>
     <row r="6">
@@ -7974,28 +7974,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>988.7431335654391</v>
+        <v>1087.456346574542</v>
       </c>
       <c r="AB6" t="n">
-        <v>1352.841975612723</v>
+        <v>1487.905748571381</v>
       </c>
       <c r="AC6" t="n">
-        <v>1223.728636185882</v>
+        <v>1345.902112216562</v>
       </c>
       <c r="AD6" t="n">
-        <v>988743.133565439</v>
+        <v>1087456.346574542</v>
       </c>
       <c r="AE6" t="n">
-        <v>1352841.975612723</v>
+        <v>1487905.748571381</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.425628401617153e-06</v>
+        <v>2.116834633775793e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.72135416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1223728.636185882</v>
+        <v>1345902.112216562</v>
       </c>
     </row>
   </sheetData>
@@ -8271,28 +8271,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2672.176600514561</v>
+        <v>2839.176041238352</v>
       </c>
       <c r="AB2" t="n">
-        <v>3656.189912935721</v>
+        <v>3884.685915229377</v>
       </c>
       <c r="AC2" t="n">
-        <v>3307.248279139769</v>
+        <v>3513.936943670664</v>
       </c>
       <c r="AD2" t="n">
-        <v>2672176.60051456</v>
+        <v>2839176.041238352</v>
       </c>
       <c r="AE2" t="n">
-        <v>3656189.912935721</v>
+        <v>3884685.915229377</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.387231049120222e-07</v>
+        <v>1.233294081700554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.84505208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3307248.279139769</v>
+        <v>3513936.943670664</v>
       </c>
     </row>
     <row r="3">
@@ -8377,28 +8377,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1497.111971972005</v>
+        <v>1614.045716820488</v>
       </c>
       <c r="AB3" t="n">
-        <v>2048.414647970873</v>
+        <v>2208.408556425303</v>
       </c>
       <c r="AC3" t="n">
-        <v>1852.916828936548</v>
+        <v>1997.641143320947</v>
       </c>
       <c r="AD3" t="n">
-        <v>1497111.971972005</v>
+        <v>1614045.716820488</v>
       </c>
       <c r="AE3" t="n">
-        <v>2048414.647970873</v>
+        <v>2208408.556425303</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.181447089307018e-06</v>
+        <v>1.737249986975775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.865234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1852916.828936548</v>
+        <v>1997641.143320947</v>
       </c>
     </row>
     <row r="4">
@@ -8483,28 +8483,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1237.809813198754</v>
+        <v>1338.026635312494</v>
       </c>
       <c r="AB4" t="n">
-        <v>1693.625994733432</v>
+        <v>1830.747072003606</v>
       </c>
       <c r="AC4" t="n">
-        <v>1531.988706815086</v>
+        <v>1656.023140921235</v>
       </c>
       <c r="AD4" t="n">
-        <v>1237809.813198754</v>
+        <v>1338026.635312494</v>
       </c>
       <c r="AE4" t="n">
-        <v>1693625.994733433</v>
+        <v>1830747.072003606</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.310151402081242e-06</v>
+        <v>1.926502275727778e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.22526041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1531988.706815086</v>
+        <v>1656023.140921235</v>
       </c>
     </row>
     <row r="5">
@@ -8589,28 +8589,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1100.570567409898</v>
+        <v>1192.514224256563</v>
       </c>
       <c r="AB5" t="n">
-        <v>1505.849204076905</v>
+        <v>1631.650571642375</v>
       </c>
       <c r="AC5" t="n">
-        <v>1362.133069512436</v>
+        <v>1475.928131120786</v>
       </c>
       <c r="AD5" t="n">
-        <v>1100570.567409898</v>
+        <v>1192514.224256563</v>
       </c>
       <c r="AE5" t="n">
-        <v>1505849.204076905</v>
+        <v>1631650.571642375</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.378696198960241e-06</v>
+        <v>2.027293456782822e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.02083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1362133.069512436</v>
+        <v>1475928.131120786</v>
       </c>
     </row>
     <row r="6">
@@ -8695,28 +8695,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1030.58949951466</v>
+        <v>1130.806232119849</v>
       </c>
       <c r="AB6" t="n">
-        <v>1410.098019635819</v>
+        <v>1547.218974436444</v>
       </c>
       <c r="AC6" t="n">
-        <v>1275.520243726776</v>
+        <v>1399.554567051699</v>
       </c>
       <c r="AD6" t="n">
-        <v>1030589.49951466</v>
+        <v>1130806.232119848</v>
       </c>
       <c r="AE6" t="n">
-        <v>1410098.019635819</v>
+        <v>1547218.974436444</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.406192120325643e-06</v>
+        <v>2.067724627561659e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.57161458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1275520.243726776</v>
+        <v>1399554.567051699</v>
       </c>
     </row>
     <row r="7">
@@ -8801,28 +8801,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1035.291737400409</v>
+        <v>1135.508470005598</v>
       </c>
       <c r="AB7" t="n">
-        <v>1416.531828959195</v>
+        <v>1553.652783759821</v>
       </c>
       <c r="AC7" t="n">
-        <v>1281.340019318238</v>
+        <v>1405.374342643161</v>
       </c>
       <c r="AD7" t="n">
-        <v>1035291.737400409</v>
+        <v>1135508.470005598</v>
       </c>
       <c r="AE7" t="n">
-        <v>1416531.828959195</v>
+        <v>1553652.783759821</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.40580210725663e-06</v>
+        <v>2.067151135777562e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1281340.019318238</v>
+        <v>1405374.342643161</v>
       </c>
     </row>
   </sheetData>
@@ -9098,28 +9098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3870.933798712148</v>
+        <v>4068.234347649147</v>
       </c>
       <c r="AB2" t="n">
-        <v>5296.382396944871</v>
+        <v>5566.337712286389</v>
       </c>
       <c r="AC2" t="n">
-        <v>4790.903094499633</v>
+        <v>5035.094253429613</v>
       </c>
       <c r="AD2" t="n">
-        <v>3870933.798712147</v>
+        <v>4068234.347649147</v>
       </c>
       <c r="AE2" t="n">
-        <v>5296382.396944871</v>
+        <v>5566337.712286389</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.828796108627967e-07</v>
+        <v>9.879714463586906e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.86002604166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4790903.094499633</v>
+        <v>5035094.253429613</v>
       </c>
     </row>
     <row r="3">
@@ -9204,28 +9204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1895.323985289982</v>
+        <v>2023.883321214327</v>
       </c>
       <c r="AB3" t="n">
-        <v>2593.265892466678</v>
+        <v>2769.166447515984</v>
       </c>
       <c r="AC3" t="n">
-        <v>2345.768235361197</v>
+        <v>2504.881088314577</v>
       </c>
       <c r="AD3" t="n">
-        <v>1895323.985289982</v>
+        <v>2023883.321214327</v>
       </c>
       <c r="AE3" t="n">
-        <v>2593265.892466678</v>
+        <v>2769166.447515984</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.054811835522357e-06</v>
+        <v>1.526072763339058e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.04296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2345768.235361197</v>
+        <v>2504881.088314577</v>
       </c>
     </row>
     <row r="4">
@@ -9310,28 +9310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1526.749286744113</v>
+        <v>1638.315224452392</v>
       </c>
       <c r="AB4" t="n">
-        <v>2088.965729548118</v>
+        <v>2241.615167462385</v>
       </c>
       <c r="AC4" t="n">
-        <v>1889.597772201861</v>
+        <v>2027.678562006421</v>
       </c>
       <c r="AD4" t="n">
-        <v>1526749.286744113</v>
+        <v>1638315.224452392</v>
       </c>
       <c r="AE4" t="n">
-        <v>2088965.729548119</v>
+        <v>2241615.167462385</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.196262780275222e-06</v>
+        <v>1.730720101249354e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.60872395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1889597.772201861</v>
+        <v>2027678.562006421</v>
       </c>
     </row>
     <row r="5">
@@ -9416,28 +9416,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1360.396650331955</v>
+        <v>1463.295341485885</v>
       </c>
       <c r="AB5" t="n">
-        <v>1861.354713448645</v>
+        <v>2002.145242255318</v>
       </c>
       <c r="AC5" t="n">
-        <v>1683.709632024853</v>
+        <v>1811.063310362966</v>
       </c>
       <c r="AD5" t="n">
-        <v>1360396.650331955</v>
+        <v>1463295.341485885</v>
       </c>
       <c r="AE5" t="n">
-        <v>1861354.713448645</v>
+        <v>2002145.242255318</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.27362317720593e-06</v>
+        <v>1.842642996633429e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.05598958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1683709.632024853</v>
+        <v>1811063.310362966</v>
       </c>
     </row>
     <row r="6">
@@ -9522,28 +9522,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1253.377666999116</v>
+        <v>1356.191017298474</v>
       </c>
       <c r="AB6" t="n">
-        <v>1714.926619108324</v>
+        <v>1855.6003807928</v>
       </c>
       <c r="AC6" t="n">
-        <v>1551.256429495252</v>
+        <v>1678.504484801426</v>
       </c>
       <c r="AD6" t="n">
-        <v>1253377.666999116</v>
+        <v>1356191.017298474</v>
       </c>
       <c r="AE6" t="n">
-        <v>1714926.619108324</v>
+        <v>1855600.3807928</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.320585267313501e-06</v>
+        <v>1.910586457456608e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.19986979166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1551256.429495252</v>
+        <v>1678504.484801426</v>
       </c>
     </row>
     <row r="7">
@@ -9628,28 +9628,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1162.950308996493</v>
+        <v>1265.848910641872</v>
       </c>
       <c r="AB7" t="n">
-        <v>1591.199918515658</v>
+        <v>1731.990324852783</v>
       </c>
       <c r="AC7" t="n">
-        <v>1439.338031555635</v>
+        <v>1566.691599112521</v>
       </c>
       <c r="AD7" t="n">
-        <v>1162950.308996493</v>
+        <v>1265848.910641872</v>
       </c>
       <c r="AE7" t="n">
-        <v>1591199.918515658</v>
+        <v>1731990.324852783</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.354842182742671e-06</v>
+        <v>1.960148420862694e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.61067708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1439338.031555635</v>
+        <v>1566691.599112521</v>
       </c>
     </row>
     <row r="8">
@@ -9734,28 +9734,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1124.176716809819</v>
+        <v>1218.49341275542</v>
       </c>
       <c r="AB8" t="n">
-        <v>1538.148179115689</v>
+        <v>1667.196443467419</v>
       </c>
       <c r="AC8" t="n">
-        <v>1391.349475705415</v>
+        <v>1508.081554827793</v>
       </c>
       <c r="AD8" t="n">
-        <v>1124176.716809819</v>
+        <v>1218493.41275542</v>
       </c>
       <c r="AE8" t="n">
-        <v>1538148.179115689</v>
+        <v>1667196.443467419</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.368112031851223e-06</v>
+        <v>1.979346873720546e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.392578125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1391349.475705415</v>
+        <v>1508081.554827793</v>
       </c>
     </row>
     <row r="9">
@@ -9840,28 +9840,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1128.923544470965</v>
+        <v>1223.240240416565</v>
       </c>
       <c r="AB9" t="n">
-        <v>1544.642998136925</v>
+        <v>1673.691262488654</v>
       </c>
       <c r="AC9" t="n">
-        <v>1397.2244383148</v>
+        <v>1513.956517437177</v>
       </c>
       <c r="AD9" t="n">
-        <v>1128923.544470965</v>
+        <v>1223240.240416565</v>
       </c>
       <c r="AE9" t="n">
-        <v>1544642.998136925</v>
+        <v>1673691.262488654</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.367547357421072e-06</v>
+        <v>1.978529918279787e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.40234375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1397224.4383148</v>
+        <v>1513956.517437177</v>
       </c>
     </row>
   </sheetData>
@@ -10137,28 +10137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1812.874927049667</v>
+        <v>1942.322623434829</v>
       </c>
       <c r="AB2" t="n">
-        <v>2480.455453586544</v>
+        <v>2657.571502610037</v>
       </c>
       <c r="AC2" t="n">
-        <v>2243.724266437337</v>
+        <v>2403.936608325964</v>
       </c>
       <c r="AD2" t="n">
-        <v>1812874.927049667</v>
+        <v>1942322.623434829</v>
       </c>
       <c r="AE2" t="n">
-        <v>2480455.453586543</v>
+        <v>2657571.502610037</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02975919714007e-06</v>
+        <v>1.546373542506084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.18424479166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2243724.266437337</v>
+        <v>2403936.608325964</v>
       </c>
     </row>
     <row r="3">
@@ -10243,28 +10243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1129.687770468063</v>
+        <v>1234.847949645077</v>
       </c>
       <c r="AB3" t="n">
-        <v>1545.688645861425</v>
+        <v>1689.573442351093</v>
       </c>
       <c r="AC3" t="n">
-        <v>1398.17029088805</v>
+        <v>1528.322924344324</v>
       </c>
       <c r="AD3" t="n">
-        <v>1129687.770468062</v>
+        <v>1234847.949645077</v>
       </c>
       <c r="AE3" t="n">
-        <v>1545688.645861425</v>
+        <v>1689573.442351094</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.336324843035734e-06</v>
+        <v>2.006738456139247e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.80143229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1398170.29088805</v>
+        <v>1528322.924344324</v>
       </c>
     </row>
     <row r="4">
@@ -10349,28 +10349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>951.9810797786312</v>
+        <v>1041.035070852371</v>
       </c>
       <c r="AB4" t="n">
-        <v>1302.542511794262</v>
+        <v>1424.390111166159</v>
       </c>
       <c r="AC4" t="n">
-        <v>1178.229682598515</v>
+        <v>1288.448318100537</v>
       </c>
       <c r="AD4" t="n">
-        <v>951981.0797786312</v>
+        <v>1041035.070852371</v>
       </c>
       <c r="AE4" t="n">
-        <v>1302542.511794262</v>
+        <v>1424390.111166159</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.440278188920647e-06</v>
+        <v>2.16284359623206e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.01106770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1178229.682598514</v>
+        <v>1288448.318100537</v>
       </c>
     </row>
     <row r="5">
@@ -10455,28 +10455,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>940.2957853922591</v>
+        <v>1037.360155336075</v>
       </c>
       <c r="AB5" t="n">
-        <v>1286.554176496023</v>
+        <v>1419.361929630932</v>
       </c>
       <c r="AC5" t="n">
-        <v>1163.76725158137</v>
+        <v>1283.900019153935</v>
       </c>
       <c r="AD5" t="n">
-        <v>940295.785392259</v>
+        <v>1037360.155336075</v>
       </c>
       <c r="AE5" t="n">
-        <v>1286554.176496023</v>
+        <v>1419361.929630932</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.444452613192226e-06</v>
+        <v>2.169112264933143e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.94596354166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1163767.25158137</v>
+        <v>1283900.019153935</v>
       </c>
     </row>
   </sheetData>
@@ -10752,28 +10752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1290.771360457657</v>
+        <v>1408.558899484292</v>
       </c>
       <c r="AB2" t="n">
-        <v>1766.090320191627</v>
+        <v>1927.252427507346</v>
       </c>
       <c r="AC2" t="n">
-        <v>1597.53713875587</v>
+        <v>1743.318160741815</v>
       </c>
       <c r="AD2" t="n">
-        <v>1290771.360457657</v>
+        <v>1408558.899484292</v>
       </c>
       <c r="AE2" t="n">
-        <v>1766090.320191627</v>
+        <v>1927252.427507346</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.21117910734458e-06</v>
+        <v>1.857642018203221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.50260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1597537.13875587</v>
+        <v>1743318.160741815</v>
       </c>
     </row>
     <row r="3">
@@ -10858,28 +10858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>876.8826633091646</v>
+        <v>971.1809672141297</v>
       </c>
       <c r="AB3" t="n">
-        <v>1199.789545272431</v>
+        <v>1328.812644822764</v>
       </c>
       <c r="AC3" t="n">
-        <v>1085.283314986832</v>
+        <v>1201.992631001139</v>
       </c>
       <c r="AD3" t="n">
-        <v>876882.6633091646</v>
+        <v>971180.9672141297</v>
       </c>
       <c r="AE3" t="n">
-        <v>1199789.545272431</v>
+        <v>1328812.644822764</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464126758046579e-06</v>
+        <v>2.245599655104683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.58072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1085283.314986832</v>
+        <v>1201992.631001139</v>
       </c>
     </row>
     <row r="4">
@@ -10964,28 +10964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>878.9454390538677</v>
+        <v>973.2437429588329</v>
       </c>
       <c r="AB4" t="n">
-        <v>1202.611926049577</v>
+        <v>1331.63502559991</v>
       </c>
       <c r="AC4" t="n">
-        <v>1087.836331703844</v>
+        <v>1204.545647718151</v>
       </c>
       <c r="AD4" t="n">
-        <v>878945.4390538677</v>
+        <v>973243.7429588329</v>
       </c>
       <c r="AE4" t="n">
-        <v>1202611.926049577</v>
+        <v>1331635.02559991</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.46614185463498e-06</v>
+        <v>2.248690302945826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.54817708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1087836.331703844</v>
+        <v>1204545.647718151</v>
       </c>
     </row>
   </sheetData>
@@ -19362,28 +19362,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>976.2637316457256</v>
+        <v>1075.865861470893</v>
       </c>
       <c r="AB2" t="n">
-        <v>1335.767107353814</v>
+        <v>1472.047135516454</v>
       </c>
       <c r="AC2" t="n">
-        <v>1208.283369388876</v>
+        <v>1331.557022933894</v>
       </c>
       <c r="AD2" t="n">
-        <v>976263.7316457256</v>
+        <v>1075865.861470893</v>
       </c>
       <c r="AE2" t="n">
-        <v>1335767.107353814</v>
+        <v>1472047.135516454</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.365363641670717e-06</v>
+        <v>2.133353757813553e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.15559895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1208283.369388876</v>
+        <v>1331557.022933894</v>
       </c>
     </row>
     <row r="3">
@@ -19468,28 +19468,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>836.3374065583732</v>
+        <v>928.2712762934495</v>
       </c>
       <c r="AB3" t="n">
-        <v>1144.313736255513</v>
+        <v>1270.10171266313</v>
       </c>
       <c r="AC3" t="n">
-        <v>1035.102039321702</v>
+        <v>1148.88498780551</v>
       </c>
       <c r="AD3" t="n">
-        <v>836337.4065583732</v>
+        <v>928271.2762934496</v>
       </c>
       <c r="AE3" t="n">
-        <v>1144313.736255513</v>
+        <v>1270101.71266313</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.470138432976103e-06</v>
+        <v>2.297062302507161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.29361979166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1035102.039321702</v>
+        <v>1148884.98780551</v>
       </c>
     </row>
   </sheetData>
@@ -19765,28 +19765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>784.4313651351692</v>
+        <v>886.3453591628827</v>
       </c>
       <c r="AB2" t="n">
-        <v>1073.293600447353</v>
+        <v>1212.736823204166</v>
       </c>
       <c r="AC2" t="n">
-        <v>970.8599655976858</v>
+        <v>1096.994922884381</v>
       </c>
       <c r="AD2" t="n">
-        <v>784431.3651351692</v>
+        <v>886345.3591628827</v>
       </c>
       <c r="AE2" t="n">
-        <v>1073293.600447353</v>
+        <v>1212736.823204166</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.397154226557098e-06</v>
+        <v>2.27690889727378e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.43489583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>970859.9655976858</v>
+        <v>1096994.922884381</v>
       </c>
     </row>
   </sheetData>
@@ -20062,28 +20062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2435.086058508187</v>
+        <v>2592.476842598227</v>
       </c>
       <c r="AB2" t="n">
-        <v>3331.792173666077</v>
+        <v>3547.14118804942</v>
       </c>
       <c r="AC2" t="n">
-        <v>3013.810604810945</v>
+        <v>3208.607011505775</v>
       </c>
       <c r="AD2" t="n">
-        <v>2435086.058508187</v>
+        <v>2592476.842598227</v>
       </c>
       <c r="AE2" t="n">
-        <v>3331792.173666077</v>
+        <v>3547141.18804942</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.826460375882924e-07</v>
+        <v>1.304004313337917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.31510416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3013810.604810945</v>
+        <v>3208607.011505775</v>
       </c>
     </row>
     <row r="3">
@@ -20168,28 +20168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1407.790905656648</v>
+        <v>1515.569197620503</v>
       </c>
       <c r="AB3" t="n">
-        <v>1926.201624470867</v>
+        <v>2073.668638378475</v>
       </c>
       <c r="AC3" t="n">
-        <v>1742.367644872326</v>
+        <v>1875.760613943846</v>
       </c>
       <c r="AD3" t="n">
-        <v>1407790.905656648</v>
+        <v>1515569.197620503</v>
       </c>
       <c r="AE3" t="n">
-        <v>1926201.624470867</v>
+        <v>2073668.638378475</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.217269627427076e-06</v>
+        <v>1.798370781788462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.33463541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1742367.644872326</v>
+        <v>1875760.613943846</v>
       </c>
     </row>
     <row r="4">
@@ -20274,28 +20274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1160.353747888442</v>
+        <v>1268.046609489175</v>
       </c>
       <c r="AB4" t="n">
-        <v>1587.647189055431</v>
+        <v>1734.997313371292</v>
       </c>
       <c r="AC4" t="n">
-        <v>1436.124369608804</v>
+        <v>1569.411604867159</v>
       </c>
       <c r="AD4" t="n">
-        <v>1160353.747888442</v>
+        <v>1268046.609489175</v>
       </c>
       <c r="AE4" t="n">
-        <v>1587647.189055431</v>
+        <v>1734997.313371292</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.340857798482895e-06</v>
+        <v>1.980957573402775e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.90625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1436124.369608805</v>
+        <v>1569411.604867159</v>
       </c>
     </row>
     <row r="5">
@@ -20380,28 +20380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1027.55141711434</v>
+        <v>1127.032423930423</v>
       </c>
       <c r="AB5" t="n">
-        <v>1405.941181264966</v>
+        <v>1542.055483583005</v>
       </c>
       <c r="AC5" t="n">
-        <v>1271.760128175878</v>
+        <v>1394.883872518307</v>
       </c>
       <c r="AD5" t="n">
-        <v>1027551.41711434</v>
+        <v>1127032.423930423</v>
       </c>
       <c r="AE5" t="n">
-        <v>1405941.181264966</v>
+        <v>1542055.483583005</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.406738664169224e-06</v>
+        <v>2.078288699769289e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.78645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1271760.128175878</v>
+        <v>1394883.872518307</v>
       </c>
     </row>
     <row r="6">
@@ -20486,28 +20486,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1009.625032880842</v>
+        <v>1109.106039696925</v>
       </c>
       <c r="AB6" t="n">
-        <v>1381.413511500438</v>
+        <v>1517.527813818477</v>
       </c>
       <c r="AC6" t="n">
-        <v>1249.573344788876</v>
+        <v>1372.697089131304</v>
       </c>
       <c r="AD6" t="n">
-        <v>1009625.032880842</v>
+        <v>1109106.039696925</v>
       </c>
       <c r="AE6" t="n">
-        <v>1381413.511500438</v>
+        <v>1517527.813818477</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.415601560898327e-06</v>
+        <v>2.091382573271511e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.646484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1249573.344788876</v>
+        <v>1372697.089131305</v>
       </c>
     </row>
   </sheetData>
@@ -20783,28 +20783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3529.350049600985</v>
+        <v>3725.260632373524</v>
       </c>
       <c r="AB2" t="n">
-        <v>4829.0124417995</v>
+        <v>5097.065944113824</v>
       </c>
       <c r="AC2" t="n">
-        <v>4368.138271915502</v>
+        <v>4610.609124184391</v>
       </c>
       <c r="AD2" t="n">
-        <v>3529350.049600985</v>
+        <v>3725260.632373523</v>
       </c>
       <c r="AE2" t="n">
-        <v>4829012.4417995</v>
+        <v>5097065.944113825</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.19210831995068e-07</v>
+        <v>1.044415685927859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.95247395833334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4368138.271915502</v>
+        <v>4610609.124184391</v>
       </c>
     </row>
     <row r="3">
@@ -20889,28 +20889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1788.868542478462</v>
+        <v>1916.547352033898</v>
       </c>
       <c r="AB3" t="n">
-        <v>2447.608859129281</v>
+        <v>2622.304639154562</v>
       </c>
       <c r="AC3" t="n">
-        <v>2214.012504854591</v>
+        <v>2372.035564821327</v>
       </c>
       <c r="AD3" t="n">
-        <v>1788868.542478462</v>
+        <v>1916547.352033898</v>
       </c>
       <c r="AE3" t="n">
-        <v>2447608.85912928</v>
+        <v>2622304.639154562</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.084747198909569e-06</v>
+        <v>1.575236272046622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.4765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2214012.504854591</v>
+        <v>2372035.564821327</v>
       </c>
     </row>
     <row r="4">
@@ -20995,28 +20995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1456.994552422973</v>
+        <v>1567.700737151567</v>
       </c>
       <c r="AB4" t="n">
-        <v>1993.524224688246</v>
+        <v>2144.997310646083</v>
       </c>
       <c r="AC4" t="n">
-        <v>1803.265070612822</v>
+        <v>1940.281777840653</v>
       </c>
       <c r="AD4" t="n">
-        <v>1456994.552422973</v>
+        <v>1567700.737151567</v>
       </c>
       <c r="AE4" t="n">
-        <v>1993524.224688246</v>
+        <v>2144997.310646083</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.222629945827214e-06</v>
+        <v>1.775465324910216e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.263671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1803265.070612821</v>
+        <v>1940281.777840653</v>
       </c>
     </row>
     <row r="5">
@@ -21101,28 +21101,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1295.186300449547</v>
+        <v>1405.89239566959</v>
       </c>
       <c r="AB5" t="n">
-        <v>1772.131035861936</v>
+        <v>1923.603999350224</v>
       </c>
       <c r="AC5" t="n">
-        <v>1603.001337000802</v>
+        <v>1740.017933447408</v>
       </c>
       <c r="AD5" t="n">
-        <v>1295186.300449547</v>
+        <v>1405892.39566959</v>
       </c>
       <c r="AE5" t="n">
-        <v>1772131.035861936</v>
+        <v>1923603.999350224</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.295699261124246e-06</v>
+        <v>1.881574320577778e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.84114583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1603001.337000802</v>
+        <v>1740017.933447408</v>
       </c>
     </row>
     <row r="6">
@@ -21207,28 +21207,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1184.869113288107</v>
+        <v>1287.131566522015</v>
       </c>
       <c r="AB6" t="n">
-        <v>1621.190193536842</v>
+        <v>1761.110193552506</v>
       </c>
       <c r="AC6" t="n">
-        <v>1466.466076820413</v>
+        <v>1593.032308413535</v>
       </c>
       <c r="AD6" t="n">
-        <v>1184869.113288107</v>
+        <v>1287131.566522015</v>
       </c>
       <c r="AE6" t="n">
-        <v>1621190.193536842</v>
+        <v>1761110.193552506</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.343811134962681e-06</v>
+        <v>1.951440893049796e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.98828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1466466.076820413</v>
+        <v>1593032.308413535</v>
       </c>
     </row>
     <row r="7">
@@ -21313,28 +21313,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1106.285318424945</v>
+        <v>1208.377179458261</v>
       </c>
       <c r="AB7" t="n">
-        <v>1513.668378532714</v>
+        <v>1653.354966773531</v>
       </c>
       <c r="AC7" t="n">
-        <v>1369.205992932463</v>
+        <v>1495.561089242935</v>
       </c>
       <c r="AD7" t="n">
-        <v>1106285.318424945</v>
+        <v>1208377.179458261</v>
       </c>
       <c r="AE7" t="n">
-        <v>1513668.378532714</v>
+        <v>1653354.966773531</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.376265298380323e-06</v>
+        <v>1.998569823593051e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.44466145833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1369205.992932464</v>
+        <v>1495561.089242935</v>
       </c>
     </row>
     <row r="8">
@@ -21419,28 +21419,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1101.765324224714</v>
+        <v>1195.498884126467</v>
       </c>
       <c r="AB8" t="n">
-        <v>1507.483923059888</v>
+        <v>1635.734314950278</v>
       </c>
       <c r="AC8" t="n">
-        <v>1363.611773210026</v>
+        <v>1479.622127698953</v>
       </c>
       <c r="AD8" t="n">
-        <v>1101765.324224714</v>
+        <v>1195498.884126467</v>
       </c>
       <c r="AE8" t="n">
-        <v>1507483.923059888</v>
+        <v>1635734.314950278</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.37797341224441e-06</v>
+        <v>2.001050293621643e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.41861979166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1363611.773210026</v>
+        <v>1479622.127698953</v>
       </c>
     </row>
   </sheetData>
@@ -21716,28 +21716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>789.7245401982965</v>
+        <v>903.4898228679027</v>
       </c>
       <c r="AB2" t="n">
-        <v>1080.535956087126</v>
+        <v>1236.194634805732</v>
       </c>
       <c r="AC2" t="n">
-        <v>977.4111209799097</v>
+        <v>1118.213953869939</v>
       </c>
       <c r="AD2" t="n">
-        <v>789724.5401982965</v>
+        <v>903489.8228679027</v>
       </c>
       <c r="AE2" t="n">
-        <v>1080535.956087126</v>
+        <v>1236194.634805732</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283241748154343e-06</v>
+        <v>2.139087539859538e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.93098958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>977411.1209799097</v>
+        <v>1118213.953869939</v>
       </c>
     </row>
   </sheetData>
@@ -22013,28 +22013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1454.510383276712</v>
+        <v>1581.420357180622</v>
       </c>
       <c r="AB2" t="n">
-        <v>1990.125274868524</v>
+        <v>2163.769100036754</v>
       </c>
       <c r="AC2" t="n">
-        <v>1800.190511793437</v>
+        <v>1957.262013998251</v>
       </c>
       <c r="AD2" t="n">
-        <v>1454510.383276711</v>
+        <v>1581420.357180622</v>
       </c>
       <c r="AE2" t="n">
-        <v>1990125.274868523</v>
+        <v>2163769.100036754</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.14544972894839e-06</v>
+        <v>1.743267527336044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.70052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1800190.511793437</v>
+        <v>1957262.013998251</v>
       </c>
     </row>
     <row r="3">
@@ -22119,28 +22119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>946.1187214422603</v>
+        <v>1049.201072418723</v>
       </c>
       <c r="AB3" t="n">
-        <v>1294.521374489443</v>
+        <v>1435.563194767806</v>
       </c>
       <c r="AC3" t="n">
-        <v>1170.97407138033</v>
+        <v>1298.555058284764</v>
       </c>
       <c r="AD3" t="n">
-        <v>946118.7214422603</v>
+        <v>1049201.072418723</v>
       </c>
       <c r="AE3" t="n">
-        <v>1294521.374489443</v>
+        <v>1435563.194767806</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.428885829761166e-06</v>
+        <v>2.174630805998028e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.80859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1170974.07138033</v>
+        <v>1298555.058284764</v>
       </c>
     </row>
     <row r="4">
@@ -22225,28 +22225,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>901.624466034624</v>
+        <v>996.7643655438225</v>
       </c>
       <c r="AB4" t="n">
-        <v>1233.642371292704</v>
+        <v>1363.816979077327</v>
       </c>
       <c r="AC4" t="n">
-        <v>1115.905274804471</v>
+        <v>1233.656200723338</v>
       </c>
       <c r="AD4" t="n">
-        <v>901624.466034624</v>
+        <v>996764.3655438224</v>
       </c>
       <c r="AE4" t="n">
-        <v>1233642.371292704</v>
+        <v>1363816.979077327</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.459298774206785e-06</v>
+        <v>2.220916467535874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.31380208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1115905.274804471</v>
+        <v>1233656.200723338</v>
       </c>
     </row>
   </sheetData>
@@ -22522,28 +22522,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2004.174572496398</v>
+        <v>2143.000332097929</v>
       </c>
       <c r="AB2" t="n">
-        <v>2742.200068031485</v>
+        <v>2932.147596878562</v>
       </c>
       <c r="AC2" t="n">
-        <v>2480.488342240528</v>
+        <v>2652.307545527471</v>
       </c>
       <c r="AD2" t="n">
-        <v>2004174.572496398</v>
+        <v>2143000.332097929</v>
       </c>
       <c r="AE2" t="n">
-        <v>2742200.068031485</v>
+        <v>2932147.596878562</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.776481818739548e-07</v>
+        <v>1.459541425710159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.50260416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2480488.342240528</v>
+        <v>2652307.545527471</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1226.868986371482</v>
+        <v>1332.859269160296</v>
       </c>
       <c r="AB3" t="n">
-        <v>1678.656272793145</v>
+        <v>1823.676853666063</v>
       </c>
       <c r="AC3" t="n">
-        <v>1518.447674126643</v>
+        <v>1649.627694298713</v>
       </c>
       <c r="AD3" t="n">
-        <v>1226868.986371482</v>
+        <v>1332859.269160296</v>
       </c>
       <c r="AE3" t="n">
-        <v>1678656.272793145</v>
+        <v>1823676.853666063</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.293099710298702e-06</v>
+        <v>1.930482385940846e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.33203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1518447.674126643</v>
+        <v>1649627.694298713</v>
       </c>
     </row>
     <row r="4">
@@ -22734,28 +22734,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1016.362355455074</v>
+        <v>1114.186417090857</v>
       </c>
       <c r="AB4" t="n">
-        <v>1390.631813476197</v>
+        <v>1524.479010299287</v>
       </c>
       <c r="AC4" t="n">
-        <v>1257.911864962037</v>
+        <v>1378.984873176051</v>
       </c>
       <c r="AD4" t="n">
-        <v>1016362.355455074</v>
+        <v>1114186.417090857</v>
       </c>
       <c r="AE4" t="n">
-        <v>1390631.813476197</v>
+        <v>1524479.010299287</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.409620561946504e-06</v>
+        <v>2.104437611442324e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.23567708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1257911.864962036</v>
+        <v>1378984.873176051</v>
       </c>
     </row>
     <row r="5">
@@ -22840,28 +22840,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>961.7119117573665</v>
+        <v>1059.621224739169</v>
       </c>
       <c r="AB5" t="n">
-        <v>1315.856665401577</v>
+        <v>1449.820506877316</v>
       </c>
       <c r="AC5" t="n">
-        <v>1190.273152072079</v>
+        <v>1311.451672536806</v>
       </c>
       <c r="AD5" t="n">
-        <v>961711.9117573665</v>
+        <v>1059621.224739169</v>
       </c>
       <c r="AE5" t="n">
-        <v>1315856.665401577</v>
+        <v>1449820.506877316</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.43517867621122e-06</v>
+        <v>2.142593593547139e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.822265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1190273.152072079</v>
+        <v>1311451.672536806</v>
       </c>
     </row>
   </sheetData>
